--- a/uploads/test1.xlsx
+++ b/uploads/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\collegeBloc Mid sem files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B0FB9-BB10-484D-866D-A6FD4E712812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA78E2B-AC39-4FA8-8EDB-8608BC26ABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1605" windowWidth="21600" windowHeight="11205" xr2:uid="{19FA822B-6B7B-4EB2-9585-E089147B002F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19FA822B-6B7B-4EB2-9585-E089147B002F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>sameer.w@somaiya.edu</t>
   </si>
   <si>
-    <t>dhairya903@somaiya.edu</t>
-  </si>
-  <si>
     <t>hahaha</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>dhairya24@somaiya.edu</t>
   </si>
 </sst>
 </file>
@@ -444,10 +444,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -480,19 +483,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1911132</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -500,22 +503,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1911134</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>1911133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
